--- a/Container_cost/container_cost.xlsx
+++ b/Container_cost/container_cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Container_cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{614DDF4A-DC18-4ED4-959E-C668F6AF3D97}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C3C83A2-43A0-4331-BBE7-096AD526DC3E}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{4A5F281B-5340-485A-8C03-B3650AC26870}"/>
   </bookViews>
@@ -222,6 +222,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,14 +630,14 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1999.999</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
         <f>C4*10</f>
-        <v>19999.990000000002</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -688,7 +692,7 @@
       </c>
       <c r="B11" s="4">
         <f>((2*PI()*((E5/2)+C7)*E4) + (PI()*((E5/2)+C7)^2))*C6</f>
-        <v>5401482.6954110311</v>
+        <v>37467.262305242592</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -700,7 +704,7 @@
       </c>
       <c r="B12" s="4">
         <f>((2*PI()*(E5/2)*E4) + (PI()*(E5/2)^2))*C6</f>
-        <v>5193344.5888812635</v>
+        <v>35637.441664159218</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -724,7 +728,7 @@
       </c>
       <c r="B15" s="4">
         <f>SUM(B11:B13)</f>
-        <v>10594996.93029559</v>
+        <v>73274.349972695651</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -736,7 +740,7 @@
       </c>
       <c r="B16" s="3">
         <f>(C3*B15)</f>
-        <v>84.75997544236472</v>
+        <v>0.58619479978156519</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -748,7 +752,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16*C2</f>
-        <v>237.3279312386212</v>
+        <v>1.6413454393883824</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -760,7 +764,7 @@
       </c>
       <c r="B19" s="5">
         <f>B17 + SUM(J3:J9)</f>
-        <v>239.3279312386212</v>
+        <v>3.6413454393883824</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>

--- a/Container_cost/container_cost.xlsx
+++ b/Container_cost/container_cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Container_cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C3C83A2-43A0-4331-BBE7-096AD526DC3E}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CDD17C0-546E-46E4-80BA-104E02E5CBE5}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{4A5F281B-5340-485A-8C03-B3650AC26870}"/>
   </bookViews>

--- a/Container_cost/container_cost.xlsx
+++ b/Container_cost/container_cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Container_cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CDD17C0-546E-46E4-80BA-104E02E5CBE5}"/>
+  <xr:revisionPtr revIDLastSave="428" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DC1562A-EAAF-4925-A81E-4E6D65A8AB50}"/>
   <bookViews>
     <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{4A5F281B-5340-485A-8C03-B3650AC26870}"/>
   </bookViews>
@@ -630,14 +630,14 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>1.767144375</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
         <f>C4*10</f>
-        <v>100</v>
+        <v>17.671443750000002</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -654,14 +654,14 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>1.767144375</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5">
         <f>C5*10</f>
-        <v>150</v>
+        <v>17.671443750000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
       </c>
       <c r="B11" s="4">
         <f>((2*PI()*((E5/2)+C7)*E4) + (PI()*((E5/2)+C7)^2))*C6</f>
-        <v>37467.262305242592</v>
+        <v>964.83366614364218</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="B12" s="4">
         <f>((2*PI()*(E5/2)*E4) + (PI()*(E5/2)^2))*C6</f>
-        <v>35637.441664159218</v>
+        <v>674.47621708491261</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -716,7 +716,7 @@
       </c>
       <c r="B13" s="4">
         <f>(PI()*(((C5/2)+C7)^2)) - (PI()*(C5/2)^2)</f>
-        <v>169.64600329384882</v>
+        <v>44.929277241305719</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -728,7 +728,7 @@
       </c>
       <c r="B15" s="4">
         <f>SUM(B11:B13)</f>
-        <v>73274.349972695651</v>
+        <v>1684.2391604698605</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -740,7 +740,7 @@
       </c>
       <c r="B16" s="3">
         <f>(C3*B15)</f>
-        <v>0.58619479978156519</v>
+        <v>1.3473913283758883E-2</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -752,7 +752,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16*C2</f>
-        <v>1.6413454393883824</v>
+        <v>3.7726957194524874E-2</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -764,7 +764,7 @@
       </c>
       <c r="B19" s="5">
         <f>B17 + SUM(J3:J9)</f>
-        <v>3.6413454393883824</v>
+        <v>2.0377269571945247</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>

--- a/Container_cost/container_cost.xlsx
+++ b/Container_cost/container_cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Container_cost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Container_cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="428" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DC1562A-EAAF-4925-A81E-4E6D65A8AB50}"/>
+  <xr:revisionPtr revIDLastSave="433" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2278632C-FD8A-4F25-B30F-8F312B93BFAE}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="5430" windowWidth="38700" windowHeight="15345" xr2:uid="{4A5F281B-5340-485A-8C03-B3650AC26870}"/>
+    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{4A5F281B-5340-485A-8C03-B3650AC26870}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,10 +222,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,14 +626,14 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.767144375</v>
+        <v>1.4137154999999999</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
         <f>C4*10</f>
-        <v>17.671443750000002</v>
+        <v>14.137155</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -654,14 +650,14 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1.767144375</v>
+        <v>1.4137154999999999</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5">
         <f>C5*10</f>
-        <v>17.671443750000002</v>
+        <v>14.137155</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -692,7 +688,7 @@
       </c>
       <c r="B11" s="4">
         <f>((2*PI()*((E5/2)+C7)*E4) + (PI()*((E5/2)+C7)^2))*C6</f>
-        <v>964.83366614364218</v>
+        <v>667.06091490838151</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -704,7 +700,7 @@
       </c>
       <c r="B12" s="4">
         <f>((2*PI()*(E5/2)*E4) + (PI()*(E5/2)^2))*C6</f>
-        <v>674.47621708491261</v>
+        <v>431.66477893434393</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -716,7 +712,7 @@
       </c>
       <c r="B13" s="4">
         <f>(PI()*(((C5/2)+C7)^2)) - (PI()*(C5/2)^2)</f>
-        <v>44.929277241305719</v>
+        <v>41.598288569506202</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -728,7 +724,7 @@
       </c>
       <c r="B15" s="4">
         <f>SUM(B11:B13)</f>
-        <v>1684.2391604698605</v>
+        <v>1140.3239824122315</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -740,7 +736,7 @@
       </c>
       <c r="B16" s="3">
         <f>(C3*B15)</f>
-        <v>1.3473913283758883E-2</v>
+        <v>9.1225918592978527E-3</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -752,7 +748,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16*C2</f>
-        <v>3.7726957194524874E-2</v>
+        <v>2.5543257206033985E-2</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -764,7 +760,7 @@
       </c>
       <c r="B19" s="5">
         <f>B17 + SUM(J3:J9)</f>
-        <v>2.0377269571945247</v>
+        <v>2.0255432572060341</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>

--- a/Container_cost/container_cost.xlsx
+++ b/Container_cost/container_cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Container_cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="433" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2278632C-FD8A-4F25-B30F-8F312B93BFAE}"/>
+  <xr:revisionPtr revIDLastSave="443" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA5FF00D-CCF5-436B-917F-D987C3B13DDC}"/>
   <bookViews>
-    <workbookView xWindow="6345" yWindow="1125" windowWidth="21570" windowHeight="11295" xr2:uid="{4A5F281B-5340-485A-8C03-B3650AC26870}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A5F281B-5340-485A-8C03-B3650AC26870}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,6 +222,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,14 +630,14 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.4137154999999999</v>
+        <v>0.23549999999999999</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
         <f>C4*10</f>
-        <v>14.137155</v>
+        <v>2.355</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -650,14 +654,14 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1.4137154999999999</v>
+        <v>0.23549999999999999</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5">
         <f>C5*10</f>
-        <v>14.137155</v>
+        <v>2.355</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -688,7 +692,7 @@
       </c>
       <c r="B11" s="4">
         <f>((2*PI()*((E5/2)+C7)*E4) + (PI()*((E5/2)+C7)^2))*C6</f>
-        <v>667.06091490838151</v>
+        <v>64.151768681509026</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -700,7 +704,7 @@
       </c>
       <c r="B12" s="4">
         <f>((2*PI()*(E5/2)*E4) + (PI()*(E5/2)^2))*C6</f>
-        <v>431.66477893434393</v>
+        <v>11.978554085179917</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -712,7 +716,7 @@
       </c>
       <c r="B13" s="4">
         <f>(PI()*(((C5/2)+C7)^2)) - (PI()*(C5/2)^2)</f>
-        <v>41.598288569506202</v>
+        <v>30.493869092069328</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -724,7 +728,7 @@
       </c>
       <c r="B15" s="4">
         <f>SUM(B11:B13)</f>
-        <v>1140.3239824122315</v>
+        <v>106.62419185875828</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -736,7 +740,7 @@
       </c>
       <c r="B16" s="3">
         <f>(C3*B15)</f>
-        <v>9.1225918592978527E-3</v>
+        <v>8.5299353487006623E-4</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -748,7 +752,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16*C2</f>
-        <v>2.5543257206033985E-2</v>
+        <v>2.3883818976361852E-3</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -760,7 +764,7 @@
       </c>
       <c r="B19" s="5">
         <f>B17 + SUM(J3:J9)</f>
-        <v>2.0255432572060341</v>
+        <v>2.002388381897636</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>

--- a/Container_cost/container_cost.xlsx
+++ b/Container_cost/container_cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/GitHub/ASE6002PEK/Container_cost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Container_cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="443" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA5FF00D-CCF5-436B-917F-D987C3B13DDC}"/>
+  <xr:revisionPtr revIDLastSave="993" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1530B2C1-BF5C-4CE0-B0F5-10C493515CF5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A5F281B-5340-485A-8C03-B3650AC26870}"/>
+    <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{4A5F281B-5340-485A-8C03-B3650AC26870}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,10 +222,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,14 +626,14 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.23549999999999999</v>
+        <v>0.58874952899999999</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
         <f>C4*10</f>
-        <v>2.355</v>
+        <v>5.8874952900000004</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -654,14 +650,14 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.23549999999999999</v>
+        <v>0.58874952899999999</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5">
         <f>C5*10</f>
-        <v>2.355</v>
+        <v>5.8874952900000004</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -692,7 +688,7 @@
       </c>
       <c r="B11" s="4">
         <f>((2*PI()*((E5/2)+C7)*E4) + (PI()*((E5/2)+C7)^2))*C6</f>
-        <v>64.151768681509026</v>
+        <v>181.97248104013818</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -704,7 +700,7 @@
       </c>
       <c r="B12" s="4">
         <f>((2*PI()*(E5/2)*E4) + (PI()*(E5/2)^2))*C6</f>
-        <v>11.978554085179917</v>
+        <v>74.865843246881553</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -716,7 +712,7 @@
       </c>
       <c r="B13" s="4">
         <f>(PI()*(((C5/2)+C7)^2)) - (PI()*(C5/2)^2)</f>
-        <v>30.493869092069328</v>
+        <v>33.823167467640694</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -728,7 +724,7 @@
       </c>
       <c r="B15" s="4">
         <f>SUM(B11:B13)</f>
-        <v>106.62419185875828</v>
+        <v>290.66149175466046</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -740,7 +736,7 @@
       </c>
       <c r="B16" s="3">
         <f>(C3*B15)</f>
-        <v>8.5299353487006623E-4</v>
+        <v>2.3252919340372834E-3</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -752,7 +748,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16*C2</f>
-        <v>2.3883818976361852E-3</v>
+        <v>6.5108174153043936E-3</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -764,7 +760,7 @@
       </c>
       <c r="B19" s="5">
         <f>B17 + SUM(J3:J9)</f>
-        <v>2.002388381897636</v>
+        <v>2.0065108174153043</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>

--- a/Container_cost/container_cost.xlsx
+++ b/Container_cost/container_cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07531a99d7244c5b/Documents/GitHub/ASE6002PEK/Container_cost/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="993" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1530B2C1-BF5C-4CE0-B0F5-10C493515CF5}"/>
+  <xr:revisionPtr revIDLastSave="13572" documentId="8_{AE6CABA5-0A59-47A1-890C-095979F6CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4EE0817-90DD-4F34-8776-8D32010D57BB}"/>
   <bookViews>
     <workbookView xWindow="9105" yWindow="5325" windowWidth="38700" windowHeight="15345" xr2:uid="{4A5F281B-5340-485A-8C03-B3650AC26870}"/>
   </bookViews>
@@ -222,6 +222,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,7 +548,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,14 +630,14 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.58874952899999999</v>
+        <v>50.000450000000001</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
         <f>C4*10</f>
-        <v>5.8874952900000004</v>
+        <v>500.00450000000001</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -650,14 +654,14 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.58874952899999999</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5">
         <f>C5*10</f>
-        <v>5.8874952900000004</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -688,7 +692,7 @@
       </c>
       <c r="B11" s="4">
         <f>((2*PI()*((E5/2)+C7)*E4) + (PI()*((E5/2)+C7)^2))*C6</f>
-        <v>181.97248104013818</v>
+        <v>145287.93514536787</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -700,7 +704,7 @@
       </c>
       <c r="B12" s="4">
         <f>((2*PI()*(E5/2)*E4) + (PI()*(E5/2)^2))*C6</f>
-        <v>74.865843246881553</v>
+        <v>139311.16554889505</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -712,7 +716,7 @@
       </c>
       <c r="B13" s="4">
         <f>(PI()*(((C5/2)+C7)^2)) - (PI()*(C5/2)^2)</f>
-        <v>33.823167467640694</v>
+        <v>169.64600329384882</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -724,7 +728,7 @@
       </c>
       <c r="B15" s="4">
         <f>SUM(B11:B13)</f>
-        <v>290.66149175466046</v>
+        <v>284768.74669755675</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -736,7 +740,7 @@
       </c>
       <c r="B16" s="3">
         <f>(C3*B15)</f>
-        <v>2.3252919340372834E-3</v>
+        <v>2.278149973580454</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -748,7 +752,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16*C2</f>
-        <v>6.5108174153043936E-3</v>
+        <v>6.3788199260252707</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -760,7 +764,7 @@
       </c>
       <c r="B19" s="5">
         <f>B17 + SUM(J3:J9)</f>
-        <v>2.0065108174153043</v>
+        <v>8.3788199260252707</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
